--- a/target/test-classes/testdata/TD.xlsx
+++ b/target/test-classes/testdata/TD.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selenium Projects\swagLabLogin\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4995F-210F-437B-99F9-F3982DB34812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7282AF0-759A-45A4-9E31-C1FCEEB6C860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4BEBD1AE-40B7-442A-A937-8181FFDFE4C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4BEBD1AE-40B7-442A-A937-8181FFDFE4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Browsername</t>
   </si>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>Product details</t>
+  </si>
+  <si>
+    <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>$29.99</t>
   </si>
 </sst>
 </file>
@@ -114,11 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1A9AE-9025-41AB-902D-0C74D85EA525}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,15 +504,16 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -504,7 +521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -512,12 +529,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA7A82-40B6-4B82-B2CE-E706925A33CC}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="124.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
